--- a/Grammar.xlsx
+++ b/Grammar.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Text 1</t>
   </si>
@@ -45,6 +45,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>estoy</t>
     </r>
@@ -53,6 +55,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablando
 </t>
@@ -62,6 +66,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>estás</t>
     </r>
@@ -70,6 +76,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablando
 </t>
@@ -79,6 +87,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>está</t>
     </r>
@@ -87,6 +97,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablando
 </t>
@@ -96,6 +108,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>estamos</t>
     </r>
@@ -104,6 +118,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablando
 </t>
@@ -113,6 +129,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>estáis</t>
     </r>
@@ -121,6 +139,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablando
 </t>
@@ -130,6 +150,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>están</t>
     </r>
@@ -138,6 +160,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablando</t>
     </r>
@@ -151,6 +175,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ar</t>
     </r>
@@ -159,6 +185,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 habl</t>
@@ -168,6 +196,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ando</t>
     </r>
@@ -176,6 +206,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -185,6 +217,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>er</t>
     </r>
@@ -193,6 +227,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -202,6 +238,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>iendo</t>
     </r>
@@ -210,6 +248,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -219,6 +259,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ir</t>
     </r>
@@ -227,6 +269,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -236,6 +280,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>iendo</t>
     </r>
@@ -253,6 +299,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>he</t>
     </r>
@@ -261,6 +309,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablado
 </t>
@@ -270,6 +320,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>has</t>
     </r>
@@ -278,6 +330,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablado
 </t>
@@ -287,6 +341,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ha</t>
     </r>
@@ -295,6 +351,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablado
 </t>
@@ -304,6 +362,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>hemos</t>
     </r>
@@ -312,6 +372,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablado
 </t>
@@ -321,6 +383,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>habéis</t>
     </r>
@@ -329,6 +393,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablado
 </t>
@@ -338,6 +404,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>han</t>
     </r>
@@ -346,6 +414,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablado</t>
     </r>
@@ -359,6 +429,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ar</t>
     </r>
@@ -367,6 +439,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 habl</t>
@@ -376,6 +450,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ado</t>
     </r>
@@ -384,6 +460,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -393,6 +471,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>er</t>
     </r>
@@ -401,6 +481,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -410,6 +492,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ido</t>
     </r>
@@ -418,6 +502,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -427,6 +513,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ir</t>
     </r>
@@ -435,6 +523,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -444,6 +534,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ido</t>
     </r>
@@ -477,6 +569,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 habl</t>
@@ -486,6 +580,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>é</t>
     </r>
@@ -494,6 +590,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 habl</t>
@@ -503,6 +601,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>aste</t>
     </r>
@@ -511,6 +611,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 habl</t>
@@ -520,6 +622,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ó</t>
     </r>
@@ -528,6 +632,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 habl</t>
@@ -537,6 +643,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>amos</t>
     </r>
@@ -545,6 +653,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 habl</t>
@@ -554,6 +664,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>astéis</t>
     </r>
@@ -562,6 +674,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 habl</t>
@@ -571,6 +685,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>aron</t>
     </r>
@@ -590,6 +706,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -599,6 +717,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>í</t>
     </r>
@@ -607,6 +727,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -616,6 +738,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>iste</t>
     </r>
@@ -624,6 +748,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -633,6 +759,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ió</t>
     </r>
@@ -641,6 +769,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -650,6 +780,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>imos</t>
     </r>
@@ -658,6 +790,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 aprend</t>
@@ -667,6 +801,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">isteís
 </t>
@@ -676,6 +812,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>aprend</t>
     </r>
@@ -684,6 +822,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ieron</t>
     </r>
@@ -714,6 +854,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>í</t>
     </r>
@@ -722,6 +864,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -731,6 +875,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>iste</t>
     </r>
@@ -739,6 +885,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -748,6 +896,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ió</t>
     </r>
@@ -756,6 +906,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -765,6 +917,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>imos</t>
     </r>
@@ -773,6 +927,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -782,6 +938,8 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>isteis</t>
     </r>
@@ -790,6 +948,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 viv</t>
@@ -799,8 +959,513 @@
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>ieron</t>
+    </r>
+  </si>
+  <si>
+    <t>Pretérito Imperfecto Subjuntivo</t>
+  </si>
+  <si>
+    <r>
+      <t>habla</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ron</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+hablá</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ramos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>rais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>habl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ran</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>habla</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ron</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+hablá</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>semos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>seis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>habl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>sen</t>
+    </r>
+  </si>
+  <si>
+    <t>Pretérito Pluscuamperfecto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">haber + perfecto participio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>había</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hablado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>habías</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hablado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>había</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hablado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>habíamos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hablado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>habíais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hablado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>habían</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> hablado</t>
     </r>
   </si>
 </sst>
@@ -808,7 +1473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -818,15 +1483,14 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -836,6 +1500,29 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -870,7 +1557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1156,15 +1843,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
@@ -1225,6 +1912,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Grammar.xlsx
+++ b/Grammar.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Text 1</t>
   </si>
@@ -969,372 +969,6 @@
     <t>Pretérito Imperfecto Subjuntivo</t>
   </si>
   <si>
-    <r>
-      <t>habla</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ron</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-habla</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-habl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ras</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-habla</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-hablá</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ramos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-habla</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>rais</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>habl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ran</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>habla</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ron</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-habla</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-habl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-habla</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-hablá</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>semos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-habla</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>seis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>habl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>sen</t>
-    </r>
-  </si>
-  <si>
     <t>Pretérito Pluscuamperfecto</t>
   </si>
   <si>
@@ -1466,6 +1100,752 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> hablado</t>
+    </r>
+  </si>
+  <si>
+    <t>Pretérito Subjuntivo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ar =&gt; e
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>es</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>emos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>éis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>en</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>er =&gt; a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+aprend</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+aprend</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+aprend</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+aprend</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>amos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+aprend</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>áis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+aprend</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>an</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ir =&gt; a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+viv</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+viv</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+viv</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+viv</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>amos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+viv</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>áis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+viv</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>an</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>habla</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ron</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; ra
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+hablá</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ramos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>rais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ran</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>habla</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ron</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; se
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+hablá</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>semos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habla</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>seis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+habl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>sen</t>
     </r>
   </si>
 </sst>
@@ -1843,9 +2223,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1916,26 +2296,40 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
